--- a/JSP/An/DB/DB TEST_EIP_190303 (정보처리기사).xlsx
+++ b/JSP/An/DB/DB TEST_EIP_190303 (정보처리기사).xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="8.1.852.35783"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dksdu\Downloads\YoungWoo Ahn (Japen_Java)\TeamProject01\DB\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77975455-4F4C-4699-A6E1-4236C1D08BDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="23310" windowHeight="13740" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="560" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="512">
   <si>
     <t>1. SQL에서 VIEW를 삭제할 때 사용하는 명령은?</t>
   </si>
@@ -1539,8 +1534,6 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t>스택</t>
     </r>
@@ -1549,8 +1542,6 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t>(Stack)</t>
     </r>
@@ -1569,65 +1560,344 @@
   </si>
   <si>
     <t>데이터 통신</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>test_imageIs</t>
+  </si>
+  <si>
+    <t>test_image</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="64" formatCode="&quot;₩&quot;#,##0;\\\-&quot;₩&quot;#,##0"/>
+  </numFmts>
+  <fonts count="22">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="8.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="10"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.0"/>
+      <name val="굴림"/>
       <color rgb="FF000000"/>
-      <name val="굴림"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1635,15 +1905,260 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1651,28 +2166,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="49">
+    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
+    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
+    <cellStyle name="경고문" xfId="9" builtinId="11"/>
+    <cellStyle name="계산" xfId="17" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="22" builtinId="27"/>
+    <cellStyle name="메모" xfId="8" builtinId="10"/>
+    <cellStyle name="백분율" xfId="5" builtinId="5"/>
+    <cellStyle name="보통" xfId="23" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="18" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="3" builtinId="3"/>
+    <cellStyle name="쉼표[0]" xfId="6" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="19" builtinId="24"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="20" builtinId="25"/>
+    <cellStyle name="입력" xfId="15" builtinId="20"/>
+    <cellStyle name="제목" xfId="10" builtinId="15"/>
+    <cellStyle name="제목 1" xfId="11" builtinId="16"/>
+    <cellStyle name="제목 2" xfId="12" builtinId="17"/>
+    <cellStyle name="제목 3" xfId="13" builtinId="18"/>
+    <cellStyle name="제목 4" xfId="14" builtinId="19"/>
+    <cellStyle name="좋음" xfId="21" builtinId="26"/>
+    <cellStyle name="출력" xfId="16" builtinId="21"/>
+    <cellStyle name="통화" xfId="4" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="7" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1938,2378 +2489,2378 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="2" max="2" width="192.625" customWidth="1"/>
-    <col min="3" max="3" width="9.875" customWidth="1"/>
-    <col min="4" max="4" width="91.625" customWidth="1"/>
-    <col min="7" max="7" width="97.25" customWidth="1"/>
-    <col min="8" max="8" width="15.875" customWidth="1"/>
+    <col min="2" max="2" width="192.63000488" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="11.25500011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="91.62999725" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" width="97.25499725" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="8" width="15.88000011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="0" t="s">
         <v>451</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>452</v>
       </c>
-      <c r="C1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>454</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>455</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>456</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>457</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:8">
+      <c r="A2" s="0">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="0" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:8">
+      <c r="A3" s="0">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="0">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="0">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="0">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="0">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B8" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="0">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
+      <c r="B9" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="0">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
+      <c r="B10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="0">
         <v>10</v>
       </c>
-      <c r="H3" t="s">
+      <c r="B11" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="H11" s="0" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="12" spans="1:8">
+      <c r="A12" s="0">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="0">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="G13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="0">
         <v>13</v>
       </c>
-      <c r="F4" t="s">
+      <c r="B14" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="0">
         <v>14</v>
       </c>
-      <c r="G4" t="s">
+      <c r="B15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="0">
         <v>15</v>
       </c>
-      <c r="H4" t="s">
+      <c r="B16" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="H16" s="0" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="17" spans="1:8">
+      <c r="A17" s="0">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="0">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" t="s">
-        <v>459</v>
-      </c>
-      <c r="F11" t="s">
-        <v>460</v>
-      </c>
-      <c r="G11" t="s">
-        <v>461</v>
-      </c>
-      <c r="H11" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" t="s">
-        <v>462</v>
-      </c>
-      <c r="H12" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" t="s">
-        <v>463</v>
-      </c>
-      <c r="F16" t="s">
-        <v>464</v>
-      </c>
-      <c r="G16" t="s">
-        <v>465</v>
-      </c>
-      <c r="H16" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" t="s">
-        <v>466</v>
-      </c>
-      <c r="F17" t="s">
-        <v>467</v>
-      </c>
-      <c r="G17" t="s">
-        <v>468</v>
-      </c>
-      <c r="H17" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B18" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="0" t="s">
         <v>73</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="0" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="19" spans="1:8">
+      <c r="A19" s="0">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="0" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="20" spans="1:8">
+      <c r="A20" s="0">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="0" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="21" spans="1:8">
+      <c r="A21" s="0">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C21" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="D21" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="0" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="22" spans="1:8">
+      <c r="A22" s="0">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="0" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row r="23" spans="1:8">
+      <c r="A23" s="0">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="0" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="24" spans="1:8">
+      <c r="A24" s="0">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="0" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25">
+    <row r="25" spans="1:8">
+      <c r="A25" s="0">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="0" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="26" spans="1:8">
+      <c r="A26" s="0">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="0" t="s">
         <v>459</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="0" t="s">
         <v>460</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="0" t="s">
         <v>461</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="0" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="27" spans="1:8">
+      <c r="A27" s="0">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="C27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C27" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="D27" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="0" t="s">
         <v>470</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="0" t="s">
         <v>471</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="0" t="s">
         <v>472</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="0" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row r="28" spans="1:8">
+      <c r="A28" s="0">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="0" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29">
+    <row r="29" spans="1:8">
+      <c r="A29" s="0">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="0" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30">
+    <row r="30" spans="1:8">
+      <c r="A30" s="0">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="0" t="s">
         <v>473</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="0" t="s">
         <v>474</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="0" t="s">
         <v>475</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="0" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31">
+    <row r="31" spans="1:8">
+      <c r="A31" s="0">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="0" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32">
+    <row r="32" spans="1:8">
+      <c r="A32" s="0">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="0" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33">
+    <row r="33" spans="1:8">
+      <c r="A33" s="0">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="0" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34">
+    <row r="34" spans="1:8">
+      <c r="A34" s="0">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="0" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35">
+    <row r="35" spans="1:8">
+      <c r="A35" s="0">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="0" t="s">
         <v>476</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="0" t="s">
         <v>477</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="0" t="s">
         <v>478</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="0" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36">
+    <row r="36" spans="1:8">
+      <c r="A36" s="0">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="0" t="s">
         <v>479</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="0" t="s">
         <v>480</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="0" t="s">
         <v>481</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="0" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37">
+    <row r="37" spans="1:8">
+      <c r="A37" s="0">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="0" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38">
+    <row r="38" spans="1:8">
+      <c r="A38" s="0">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="0" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39">
+    <row r="39" spans="1:8">
+      <c r="A39" s="0">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="0" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40">
+    <row r="40" spans="1:8">
+      <c r="A40" s="0">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="0" t="s">
         <v>482</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="0" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41">
+    <row r="41" spans="1:8">
+      <c r="A41" s="0">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="0" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42">
+    <row r="42" spans="1:8">
+      <c r="A42" s="0">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="C42" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="C42" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="D42" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="0" t="s">
         <v>176</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43">
+    <row r="43" spans="1:8">
+      <c r="A43" s="0">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="0" t="s">
         <v>181</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44">
+    <row r="44" spans="1:8">
+      <c r="A44" s="0">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="0" t="s">
         <v>186</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45">
+    <row r="45" spans="1:8">
+      <c r="A45" s="0">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="0" t="s">
         <v>191</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46">
+    <row r="46" spans="1:8">
+      <c r="A46" s="0">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="0" t="s">
         <v>483</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47">
+    <row r="47" spans="1:8">
+      <c r="A47" s="0">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="0" t="s">
         <v>484</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48">
+    <row r="48" spans="1:8">
+      <c r="A48" s="0">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="C48" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="C48" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="D48" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="0" t="s">
         <v>204</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49">
+    <row r="49" spans="1:8">
+      <c r="A49" s="0">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="0" t="s">
         <v>209</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50">
+    <row r="50" spans="1:8">
+      <c r="A50" s="0">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="0" t="s">
         <v>214</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51">
+    <row r="51" spans="1:8">
+      <c r="A51" s="0">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="0" t="s">
         <v>485</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="0" t="s">
         <v>486</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="0" t="s">
         <v>487</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52">
+    <row r="52" spans="1:8">
+      <c r="A52" s="0">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="0" t="s">
         <v>221</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53">
+    <row r="53" spans="1:8">
+      <c r="A53" s="0">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="C53" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="C53" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="D53" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="0" t="s">
         <v>226</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54">
+    <row r="54" spans="1:8">
+      <c r="A54" s="0">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="C54" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="C54" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="D54" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="0" t="s">
         <v>231</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55">
+    <row r="55" spans="1:8">
+      <c r="A55" s="0">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="0" t="s">
         <v>236</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56">
+    <row r="56" spans="1:8">
+      <c r="A56" s="0">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="C56" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="C56" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="D56" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="0" t="s">
         <v>241</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57">
+    <row r="57" spans="1:8">
+      <c r="A57" s="0">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="0" t="s">
         <v>246</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58">
+    <row r="58" spans="1:8">
+      <c r="A58" s="0">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="0" t="s">
         <v>251</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59">
+    <row r="59" spans="1:8">
+      <c r="A59" s="0">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="C59" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="C59" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="D59" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="0" t="s">
         <v>256</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60">
+    <row r="60" spans="1:8">
+      <c r="A60" s="0">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="C60" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="C60" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="D60" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="0" t="s">
         <v>261</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61">
+    <row r="61" spans="1:8">
+      <c r="A61" s="0">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="0" t="s">
         <v>266</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62">
+    <row r="62" spans="1:8">
+      <c r="A62" s="0">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="0" t="s">
         <v>271</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63">
+    <row r="63" spans="1:8">
+      <c r="A63" s="0">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="0" t="s">
         <v>276</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64">
+    <row r="64" spans="1:8">
+      <c r="A64" s="0">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="0" t="s">
         <v>281</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65">
+    <row r="65" spans="1:8">
+      <c r="A65" s="0">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="0" t="s">
         <v>286</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66">
+    <row r="66" spans="1:8">
+      <c r="A66" s="0">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="0" t="s">
         <v>291</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67">
+    <row r="67" spans="1:8">
+      <c r="A67" s="0">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="0" t="s">
         <v>488</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68">
+    <row r="68" spans="1:8">
+      <c r="A68" s="0">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="0" t="s">
         <v>300</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69">
+    <row r="69" spans="1:8">
+      <c r="A69" s="0">
         <v>68</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="0" t="s">
         <v>305</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70">
+    <row r="70" spans="1:8">
+      <c r="A70" s="0">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" s="0" t="s">
         <v>310</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71">
+    <row r="71" spans="1:8">
+      <c r="A71" s="0">
         <v>70</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="0" t="s">
         <v>312</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" s="0" t="s">
         <v>315</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72">
+    <row r="72" spans="1:8">
+      <c r="A72" s="0">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="0" t="s">
         <v>320</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73">
+    <row r="73" spans="1:8">
+      <c r="A73" s="0">
         <v>72</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="0" t="s">
         <v>321</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="0" t="s">
         <v>323</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" s="0" t="s">
         <v>325</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74">
+    <row r="74" spans="1:8">
+      <c r="A74" s="0">
         <v>73</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="0" t="s">
         <v>489</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="0" t="s">
         <v>490</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" s="0" t="s">
         <v>491</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75">
+    <row r="75" spans="1:8">
+      <c r="A75" s="0">
         <v>74</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="0" t="s">
         <v>332</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76">
+    <row r="76" spans="1:8">
+      <c r="A76" s="0">
         <v>75</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="0" t="s">
         <v>334</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" s="0" t="s">
         <v>337</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77">
+    <row r="77" spans="1:8">
+      <c r="A77" s="0">
         <v>76</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="0" t="s">
         <v>340</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="0" t="s">
         <v>341</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" s="0" t="s">
         <v>342</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78">
+    <row r="78" spans="1:8">
+      <c r="A78" s="0">
         <v>77</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="0" t="s">
         <v>344</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="0" t="s">
         <v>346</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" s="0" t="s">
         <v>347</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79">
+    <row r="79" spans="1:8">
+      <c r="A79" s="0">
         <v>78</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="0" t="s">
         <v>348</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="0" t="s">
         <v>351</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" s="0" t="s">
         <v>352</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80">
+    <row r="80" spans="1:8">
+      <c r="A80" s="0">
         <v>79</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="0" t="s">
         <v>353</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" s="0" t="s">
         <v>357</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81">
+    <row r="81" spans="1:8">
+      <c r="A81" s="0">
         <v>80</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="0" t="s">
         <v>360</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="0" t="s">
         <v>361</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81" s="0" t="s">
         <v>492</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82">
+    <row r="82" spans="1:8">
+      <c r="A82" s="0">
         <v>81</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="0" t="s">
         <v>493</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="0" t="s">
         <v>494</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G82" s="0" t="s">
         <v>495</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83">
+    <row r="83" spans="1:8">
+      <c r="A83" s="0">
         <v>82</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="0" t="s">
         <v>364</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="0" t="s">
         <v>366</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83" s="0" t="s">
         <v>368</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84">
+    <row r="84" spans="1:8">
+      <c r="A84" s="0">
         <v>83</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="0" t="s">
         <v>372</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" s="0" t="s">
         <v>373</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85">
+    <row r="85" spans="1:8">
+      <c r="A85" s="0">
         <v>84</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="0" t="s">
         <v>374</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="0" t="s">
         <v>375</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="0" t="s">
         <v>376</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="0" t="s">
         <v>377</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G85" s="0" t="s">
         <v>378</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86">
+    <row r="86" spans="1:8">
+      <c r="A86" s="0">
         <v>85</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="0" t="s">
         <v>379</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="0" t="s">
         <v>380</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="0" t="s">
         <v>382</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86" s="0" t="s">
         <v>383</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87">
+    <row r="87" spans="1:8">
+      <c r="A87" s="0">
         <v>86</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="0" t="s">
         <v>384</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="0" t="s">
         <v>386</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="0" t="s">
         <v>387</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G87" s="0" t="s">
         <v>388</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88">
+    <row r="88" spans="1:8">
+      <c r="A88" s="0">
         <v>87</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="0" t="s">
         <v>389</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="0" t="s">
         <v>391</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="0" t="s">
         <v>392</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" s="0" t="s">
         <v>393</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89">
+    <row r="89" spans="1:8">
+      <c r="A89" s="0">
         <v>88</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="0" t="s">
         <v>394</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="0" t="s">
         <v>395</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="0" t="s">
         <v>396</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="0" t="s">
         <v>397</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G89" s="0" t="s">
         <v>398</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90">
+    <row r="90" spans="1:8">
+      <c r="A90" s="0">
         <v>89</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="0" t="s">
         <v>399</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="0" t="s">
         <v>400</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="0" t="s">
         <v>496</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="0" t="s">
         <v>497</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G90" s="0" t="s">
         <v>498</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91">
+    <row r="91" spans="1:8">
+      <c r="A91" s="0">
         <v>90</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="0" t="s">
         <v>401</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="0" t="s">
         <v>402</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="0" t="s">
         <v>403</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="0" t="s">
         <v>404</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G91" s="0" t="s">
         <v>405</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92">
+    <row r="92" spans="1:8">
+      <c r="A92" s="0">
         <v>91</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="0" t="s">
         <v>406</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="0" t="s">
         <v>407</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" s="0" t="s">
         <v>408</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="0" t="s">
         <v>409</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" s="0" t="s">
         <v>410</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93">
+    <row r="93" spans="1:8">
+      <c r="A93" s="0">
         <v>92</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="0" t="s">
         <v>411</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="0" t="s">
         <v>412</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="0" t="s">
         <v>376</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="0" t="s">
         <v>413</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G93" s="0" t="s">
         <v>499</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94">
+    <row r="94" spans="1:8">
+      <c r="A94" s="0">
         <v>93</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="0" t="s">
         <v>414</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="0" t="s">
         <v>415</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="0" t="s">
         <v>416</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" s="0" t="s">
         <v>418</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95">
+    <row r="95" spans="1:8">
+      <c r="A95" s="0">
         <v>94</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="0" t="s">
         <v>419</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="0" t="s">
         <v>420</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="0" t="s">
         <v>500</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="0" t="s">
         <v>501</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" s="0" t="s">
         <v>502</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96">
+    <row r="96" spans="1:8">
+      <c r="A96" s="0">
         <v>95</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="0" t="s">
         <v>421</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="0" t="s">
         <v>422</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="0" t="s">
         <v>423</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" s="0" t="s">
         <v>424</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G96" s="0" t="s">
         <v>425</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97">
+    <row r="97" spans="1:8">
+      <c r="A97" s="0">
         <v>96</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="0" t="s">
         <v>426</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="0" t="s">
         <v>427</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="0" t="s">
         <v>428</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="0" t="s">
         <v>429</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G97" s="0" t="s">
         <v>430</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98">
+    <row r="98" spans="1:8">
+      <c r="A98" s="0">
         <v>97</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="0" t="s">
         <v>431</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="0" t="s">
         <v>432</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="0" t="s">
         <v>433</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G98" s="0" t="s">
         <v>435</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99">
+    <row r="99" spans="1:8">
+      <c r="A99" s="0">
         <v>98</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="0" t="s">
         <v>436</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="0" t="s">
         <v>437</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="0" t="s">
         <v>438</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="0" t="s">
         <v>439</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G99" s="0" t="s">
         <v>440</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100">
+    <row r="100" spans="1:8">
+      <c r="A100" s="0">
         <v>99</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="0" t="s">
         <v>441</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="0" t="s">
         <v>442</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" s="0" t="s">
         <v>443</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G100" s="0" t="s">
         <v>445</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101">
+    <row r="101" spans="1:8">
+      <c r="A101" s="0">
         <v>100</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="0" t="s">
         <v>446</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="0" t="s">
         <v>447</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" s="0" t="s">
         <v>448</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" s="0" t="s">
         <v>449</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G101" s="0" t="s">
         <v>450</v>
       </c>
       <c r="H101" s="2" t="s">
@@ -4318,7 +4869,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>